--- a/Question_Set2/Programming skills/MATLAB.xlsx
+++ b/Question_Set2/Programming skills/MATLAB.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You ran a MATLAB script that created multiple variables. You now want to remove all variables from the workspace to free up memory. Which of these statements can you use to accomplish this?', 'ques_type': 15, 'options': ['clc', 'clear', 'clear all', 'delete', 'clear vars'], 'score': ['clear', 'clear all']}, {'title': 'Consider the following equation: You want to convert this equation into MATLAB code. Which of these corresponds to the correct translation of the equation?', 'ques_type': 2, 'options': ['a/b+c^2+c/d*e/f', 'a/(b+c^2)+c/d*e/f', 'a/(b+c*2)+c/d*e/f', 'a/b+c**2+c/d*e/f'], 'score': 'a/(b+c^2)+c/d*e/f'}, {'title': "You are provided with the following piece of code: temp = 4 \nwhile (temp &amp;lt 9) \ndisp('Hello World!') \ntemp = temp + 2.5 \nend\n In the given code, how many times will the display command be executed?", 'ques_type': 2, 'options': ['2', '3', '4', '9'], 'score': '2'}, {'title': 'You are provided with two vectors: “age” and “weight.” You want to create a line plot, where age corresponds to the x-axis and weight corresponds to the y-axis.  Which of these statements should you use to accomplish this?', 'ques_type': 2, 'options': ['plot(age,weight)', 'plot(weight,age)', 'plot[(age,weight)]', 'plot([weight,age])'], 'score': 'plot(age,weight)'}]</t>
+    <t>questions = [
+    {
+        "title": "You ran a MATLAB script that created multiple variables. You now want to remove all variables from the workspace to free up memory. Which of these statements can you use to accomplish this?",
+        "ques_type": 15,
+        "options": [
+            "clc",
+            "clear",
+            "clear all",
+            "delete",
+            "clear vars"
+        ],
+        "score": [
+            "clear",
+            "clear all"
+        ]
+    },
+    {
+        "title": "Consider the following equation: You want to convert this equation into MATLAB code. Which of these corresponds to the correct translation of the equation?",
+        "ques_type": 2,
+        "options": [
+            "a/b+c^2+c/d*e/f",
+            "a/(b+c^2)+c/d*e/f",
+            "a/(b+c*2)+c/d*e/f",
+            "a/b+c**2+c/d*e/f"
+        ],
+        "score": "a/(b+c^2)+c/d*e/f"
+    },
+    {
+        "title": "You are provided with the following piece of code: temp = 4 \nwhile (temp &amp;lt 9) \ndisp('Hello World!') \ntemp = temp + 2.5 \nend\n In the given code, how many times will the display command be executed?",
+        "ques_type": 2,
+        "options": [
+            "2",
+            "3",
+            "4",
+            "9"
+        ],
+        "score": "2"
+    },
+    {
+        "title": "You are provided with two vectors: \u201cage\u201d and \u201cweight.\u201d You want to create a line plot, where age corresponds to the x-axis and weight corresponds to the y-axis.  Which of these statements should you use to accomplish this?",
+        "ques_type": 2,
+        "options": [
+            "plot(age,weight)",
+            "plot(weight,age)",
+            "plot[(age,weight)]",
+            "plot([weight,age])"
+        ],
+        "score": "plot(age,weight)"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
